--- a/input/Dash_LCOE_ConfigurationV2.xlsx
+++ b/input/Dash_LCOE_ConfigurationV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070754B3-76A1-47E4-B658-19B60073654F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3B9278-945B-4FC2-B3D6-4778026CCA46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="600" windowWidth="25956" windowHeight="15528" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2256" yWindow="600" windowWidth="25956" windowHeight="15528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="49">
   <si>
     <t>component</t>
   </si>
@@ -35,51 +35,21 @@
     <t>capex_Eur_kW</t>
   </si>
   <si>
-    <t>capex_Eur_kW_min</t>
-  </si>
-  <si>
-    <t>capex_Eur_kW_max</t>
-  </si>
-  <si>
     <t>opex_Eur_kWh</t>
   </si>
   <si>
-    <t>opex_Eur_kWh_min</t>
-  </si>
-  <si>
-    <t>opex_Eur_kWh_max</t>
-  </si>
-  <si>
     <t>eta_perc</t>
   </si>
   <si>
-    <t>eta_perc_min</t>
-  </si>
-  <si>
-    <t>eta_perc_max</t>
-  </si>
-  <si>
     <t>SOFC</t>
   </si>
   <si>
     <t>stacklifetime_hr</t>
   </si>
   <si>
-    <t>stacklifetime_hr_min</t>
-  </si>
-  <si>
-    <t>stacklifetime_hr_max</t>
-  </si>
-  <si>
     <t>stackexchangecost_percCapex</t>
   </si>
   <si>
-    <t>stackexchangecost_percCapex_min</t>
-  </si>
-  <si>
-    <t>stackexchangecost_percCapex_max</t>
-  </si>
-  <si>
     <t>ICE</t>
   </si>
   <si>
@@ -89,42 +59,18 @@
     <t>discountrate_perc</t>
   </si>
   <si>
-    <t>discountrate_perc_min</t>
-  </si>
-  <si>
-    <t>discountrate_perc_max</t>
-  </si>
-  <si>
     <t>lifetime_yr</t>
   </si>
   <si>
-    <t>lifetime_yr_min</t>
-  </si>
-  <si>
-    <t>lifetime_yr_max</t>
-  </si>
-  <si>
     <t>operatinghoursyearly</t>
   </si>
   <si>
-    <t>operatinghoursyearly_min</t>
-  </si>
-  <si>
-    <t>operatinghoursyearly_max</t>
-  </si>
-  <si>
     <t>Fuel_NH3</t>
   </si>
   <si>
     <t>costIncrease_percent_per_year</t>
   </si>
   <si>
-    <t>costIncrease_percent_per_year_min</t>
-  </si>
-  <si>
-    <t>costIncrease_percent_per_year_max</t>
-  </si>
-  <si>
     <t>Fuel_NG</t>
   </si>
   <si>
@@ -194,12 +140,6 @@
     <t>cost_Eur_per_kWh</t>
   </si>
   <si>
-    <t>cost_Eur_per_kWh_min</t>
-  </si>
-  <si>
-    <t>cost_Eur_per_kWh_max</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -219,6 +159,18 @@
   </si>
   <si>
     <t>Slight reformatting</t>
+  </si>
+  <si>
+    <t>parInfo</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -652,38 +604,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="81.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="4" width="35.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -691,16 +646,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="5">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5">
         <v>100</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -710,14 +668,17 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5">
         <v>2900</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>1800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -725,16 +686,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5">
         <v>1760</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>740</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -742,16 +706,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="5">
         <v>4019</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>2145</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -759,16 +726,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -776,16 +746,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.05</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -793,16 +766,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.15</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -810,16 +786,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5">
         <v>35</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -827,16 +806,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5">
         <v>25</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -844,458 +826,539 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5">
         <v>50</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="5">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5">
         <v>100</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5">
         <v>2000</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5">
         <v>1000</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5">
         <v>3000</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.05</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E16" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.04</v>
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.06</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E18" s="5">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5">
-        <v>55</v>
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E19" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="5">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5">
-        <v>65</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E21" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5">
-        <v>45000</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E22" s="5">
         <v>45000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="5">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="5">
-        <v>30000</v>
+        <v>6</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E23" s="5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5">
-        <v>60000</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E24" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="5">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="5">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E26" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="5">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E27" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="5">
+        <v>36</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="5">
         <v>100</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="5">
-        <v>1000</v>
+      <c r="D29" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E29" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5">
-        <v>800</v>
+        <v>2</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E30" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1200</v>
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E31" s="5">
         <v>1200</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0.02</v>
+        <v>3</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E32" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0.01</v>
+        <v>3</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E33" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0.03</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E34" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="5">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E35" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="5">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E36" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="5">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E37" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -1308,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5708E7F0-2DE7-4611-91D4-02BADD085AA2}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,36 +1388,39 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="5">
         <v>3</v>
@@ -1362,19 +1428,22 @@
       <c r="F2" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -1382,19 +1451,22 @@
       <c r="F3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E4" s="5">
         <v>8</v>
@@ -1402,161 +1474,182 @@
       <c r="F4" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E5" s="5">
         <v>15</v>
       </c>
       <c r="F5" s="5">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="5">
         <v>20</v>
       </c>
       <c r="F7" s="5">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6000</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E8" s="5">
         <v>6000</v>
       </c>
       <c r="F8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G8" s="5">
         <v>750</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4500</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="5">
         <v>4500</v>
       </c>
       <c r="F9" s="5">
+        <v>4500</v>
+      </c>
+      <c r="G9" s="5">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7000</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="5">
         <v>7000</v>
       </c>
       <c r="F10" s="5">
+        <v>7000</v>
+      </c>
+      <c r="G10" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1803,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1301B-A377-4F3E-A07F-0E5926CDAB2B}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,238 +1913,259 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="5">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.16297262059973924</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>0.10593220338983052</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>9.3709256844850056E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="5">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.11408083441981746</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>7.822685788787484E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>6.51890482398957E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="5">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.22001303780964804</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>0.14667535853976532</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.12222946544980444</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>1000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>650</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>575</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>700</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>480</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>1350</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>900</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>5.2</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>0.84745762711864414</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2338,190 +2452,215 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DF341-8C1A-4D19-88F8-FE2D2A0FBA8F}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="90.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="4" width="35.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="5">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5">
         <v>9.4971605452992547E-3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="5">
-        <f>D2*0.9</f>
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="5">
+        <f>E2*0.9</f>
         <v>8.5474444907693292E-3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="5">
-        <f>D2*1.1</f>
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5">
+        <f>E2*1.1</f>
         <v>1.044687659982918E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5">
         <v>11.6</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5">
         <v>34.35</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>10.066990178017212</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5">
@@ -2529,318 +2668,362 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
     </row>
   </sheetData>
@@ -2852,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F24E43-4240-45D1-8747-A83626D1F418}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2863,13 +3046,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -2878,10 +3061,10 @@
         <v>44855</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2889,16 +3072,22 @@
         <v>44887</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="10">
+        <v>44889</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>

--- a/input/Dash_LCOE_ConfigurationV2.xlsx
+++ b/input/Dash_LCOE_ConfigurationV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3B9278-945B-4FC2-B3D6-4778026CCA46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6025A9-F48F-45FF-9D32-F034B6723553}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2256" yWindow="600" windowWidth="25956" windowHeight="15528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
